--- a/Examples.xlsx
+++ b/Examples.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\GitHub\IBNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7B3868-66D4-405D-97E8-6B6698AA7977}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{FD7B3868-66D4-405D-97E8-6B6698AA7977}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9980" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="5" windowHeight="9980" windowWidth="21600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="Sheet7" r:id="rId4" sheetId="7"/>
+    <sheet name="Sheet4" r:id="rId5" sheetId="4"/>
+    <sheet name="Sheet6" r:id="rId6" sheetId="8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="120">
   <si>
     <t>origin</t>
   </si>
@@ -445,29 +445,1261 @@
     </border>
   </borders>
   <cellStyleXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="416">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+  <cellXfs count="492">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="169" xfId="6">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="6"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="166" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="169" xfId="6">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
@@ -480,6 +1712,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
@@ -510,462 +1763,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
@@ -1129,581 +1926,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
     <cellStyle name="XLConnect.Boolean" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="XLConnect.DateTime" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="XLConnect.Header" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1711,7 +1939,7 @@
     <cellStyle name="XLConnect.String" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1728,10 +1956,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1766,7 +1994,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1818,7 +2046,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1929,21 +2157,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1960,7 +2188,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2012,15 +2240,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3306,13 +3534,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4359,13 +4587,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4584,13 +4812,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
@@ -4598,194 +4826,194 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" style="407" customWidth="1"/>
-    <col min="2" max="11" width="6.6328125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="407" width="5.6328125" collapsed="false"/>
+    <col min="2" max="11" customWidth="true" width="6.6328125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="406" t="s">
+      <c r="A1" s="416" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="406" t="s">
+      <c r="B1" s="417" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="406" t="s">
+      <c r="C1" s="418" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="406" t="s">
+      <c r="D1" s="419" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="406" t="s">
+      <c r="E1" s="420" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="406" t="s">
+      <c r="F1" s="421" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="406" t="s">
+      <c r="G1" s="422" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="406" t="s">
+      <c r="H1" s="423" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="406" t="s">
+      <c r="I1" s="424" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="406" t="s">
+      <c r="J1" s="425" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="406" t="s">
+      <c r="K1" s="426" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="406">
-        <v>1</v>
-      </c>
-      <c r="B2" s="409">
-        <v>357848</v>
-      </c>
-      <c r="C2" s="409">
-        <v>1124788</v>
-      </c>
-      <c r="D2" s="409">
-        <v>1735330</v>
-      </c>
-      <c r="E2" s="409">
-        <v>2218270</v>
-      </c>
-      <c r="F2" s="409">
-        <v>2745596</v>
-      </c>
-      <c r="G2" s="409">
-        <v>3319994</v>
-      </c>
-      <c r="H2" s="409">
-        <v>3466336</v>
-      </c>
-      <c r="I2" s="409">
-        <v>3606286</v>
-      </c>
-      <c r="J2" s="409">
-        <v>3833515</v>
-      </c>
-      <c r="K2" s="409">
-        <v>3901463</v>
+      <c r="A2" s="427" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="437" t="n">
+        <v>357848.0</v>
+      </c>
+      <c r="C2" s="447" t="n">
+        <v>1124788.0</v>
+      </c>
+      <c r="D2" s="456" t="n">
+        <v>1735330.0</v>
+      </c>
+      <c r="E2" s="464" t="n">
+        <v>2218270.0</v>
+      </c>
+      <c r="F2" s="471" t="n">
+        <v>2745596.0</v>
+      </c>
+      <c r="G2" s="477" t="n">
+        <v>3319994.0</v>
+      </c>
+      <c r="H2" s="482" t="n">
+        <v>3466336.0</v>
+      </c>
+      <c r="I2" s="486" t="n">
+        <v>3606286.0</v>
+      </c>
+      <c r="J2" s="489" t="n">
+        <v>3833515.0</v>
+      </c>
+      <c r="K2" s="491" t="n">
+        <v>3901463.0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="406">
-        <v>2</v>
-      </c>
-      <c r="B3" s="409">
-        <v>352118</v>
-      </c>
-      <c r="C3" s="409">
-        <v>1236139</v>
-      </c>
-      <c r="D3" s="409">
-        <v>2170033</v>
-      </c>
-      <c r="E3" s="409">
-        <v>3353322</v>
-      </c>
-      <c r="F3" s="409">
-        <v>3799067</v>
-      </c>
-      <c r="G3" s="409">
-        <v>4120063</v>
-      </c>
-      <c r="H3" s="409">
-        <v>4647867</v>
-      </c>
-      <c r="I3" s="409">
-        <v>4914039</v>
-      </c>
-      <c r="J3" s="409">
-        <v>5339085</v>
+      <c r="A3" s="428" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="438" t="n">
+        <v>352118.0</v>
+      </c>
+      <c r="C3" s="448" t="n">
+        <v>1236139.0</v>
+      </c>
+      <c r="D3" s="457" t="n">
+        <v>2170033.0</v>
+      </c>
+      <c r="E3" s="465" t="n">
+        <v>3353322.0</v>
+      </c>
+      <c r="F3" s="472" t="n">
+        <v>3799067.0</v>
+      </c>
+      <c r="G3" s="478" t="n">
+        <v>4120063.0</v>
+      </c>
+      <c r="H3" s="483" t="n">
+        <v>4647867.0</v>
+      </c>
+      <c r="I3" s="487" t="n">
+        <v>4914039.0</v>
+      </c>
+      <c r="J3" s="490" t="n">
+        <v>5339085.0</v>
       </c>
       <c r="K3" s="409"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="406">
-        <v>3</v>
-      </c>
-      <c r="B4" s="409">
-        <v>290507</v>
-      </c>
-      <c r="C4" s="409">
-        <v>1292306</v>
-      </c>
-      <c r="D4" s="409">
-        <v>2218525</v>
-      </c>
-      <c r="E4" s="409">
-        <v>3235179</v>
-      </c>
-      <c r="F4" s="409">
-        <v>3985995</v>
-      </c>
-      <c r="G4" s="409">
-        <v>4132918</v>
-      </c>
-      <c r="H4" s="409">
-        <v>4628910</v>
-      </c>
-      <c r="I4" s="409">
-        <v>4909315</v>
+      <c r="A4" s="429" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="439" t="n">
+        <v>290507.0</v>
+      </c>
+      <c r="C4" s="449" t="n">
+        <v>1292306.0</v>
+      </c>
+      <c r="D4" s="458" t="n">
+        <v>2218525.0</v>
+      </c>
+      <c r="E4" s="466" t="n">
+        <v>3235179.0</v>
+      </c>
+      <c r="F4" s="473" t="n">
+        <v>3985995.0</v>
+      </c>
+      <c r="G4" s="479" t="n">
+        <v>4132918.0</v>
+      </c>
+      <c r="H4" s="484" t="n">
+        <v>4628910.0</v>
+      </c>
+      <c r="I4" s="488" t="n">
+        <v>4909315.0</v>
       </c>
       <c r="J4" s="409"/>
       <c r="K4" s="409"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="406">
-        <v>4</v>
-      </c>
-      <c r="B5" s="409">
-        <v>310608</v>
-      </c>
-      <c r="C5" s="409">
-        <v>1418858</v>
-      </c>
-      <c r="D5" s="409">
-        <v>2195047</v>
-      </c>
-      <c r="E5" s="409">
-        <v>3757447</v>
-      </c>
-      <c r="F5" s="409">
-        <v>4029929</v>
-      </c>
-      <c r="G5" s="409">
-        <v>4381982</v>
-      </c>
-      <c r="H5" s="409">
-        <v>4588268</v>
+      <c r="A5" s="430" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="440" t="n">
+        <v>310608.0</v>
+      </c>
+      <c r="C5" s="450" t="n">
+        <v>1418858.0</v>
+      </c>
+      <c r="D5" s="459" t="n">
+        <v>2195047.0</v>
+      </c>
+      <c r="E5" s="467" t="n">
+        <v>3757447.0</v>
+      </c>
+      <c r="F5" s="474" t="n">
+        <v>4029929.0</v>
+      </c>
+      <c r="G5" s="480" t="n">
+        <v>4381982.0</v>
+      </c>
+      <c r="H5" s="485" t="n">
+        <v>4588268.0</v>
       </c>
       <c r="I5" s="409"/>
       <c r="J5" s="409"/>
       <c r="K5" s="409"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="406">
-        <v>5</v>
-      </c>
-      <c r="B6" s="409">
-        <v>443160</v>
-      </c>
-      <c r="C6" s="409">
-        <v>1136350</v>
-      </c>
-      <c r="D6" s="409">
-        <v>2128333</v>
-      </c>
-      <c r="E6" s="409">
-        <v>2897821</v>
-      </c>
-      <c r="F6" s="409">
-        <v>3402672</v>
-      </c>
-      <c r="G6" s="409">
-        <v>3873311</v>
+      <c r="A6" s="431" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="441" t="n">
+        <v>443160.0</v>
+      </c>
+      <c r="C6" s="451" t="n">
+        <v>1136350.0</v>
+      </c>
+      <c r="D6" s="460" t="n">
+        <v>2128333.0</v>
+      </c>
+      <c r="E6" s="468" t="n">
+        <v>2897821.0</v>
+      </c>
+      <c r="F6" s="475" t="n">
+        <v>3402672.0</v>
+      </c>
+      <c r="G6" s="481" t="n">
+        <v>3873311.0</v>
       </c>
       <c r="H6" s="409"/>
       <c r="I6" s="409"/>
@@ -4793,23 +5021,23 @@
       <c r="K6" s="409"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="406">
-        <v>6</v>
-      </c>
-      <c r="B7" s="409">
-        <v>396132</v>
-      </c>
-      <c r="C7" s="409">
-        <v>1333217</v>
-      </c>
-      <c r="D7" s="409">
-        <v>2180715</v>
-      </c>
-      <c r="E7" s="409">
-        <v>2985752</v>
-      </c>
-      <c r="F7" s="409">
-        <v>3691712</v>
+      <c r="A7" s="432" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="442" t="n">
+        <v>396132.0</v>
+      </c>
+      <c r="C7" s="452" t="n">
+        <v>1333217.0</v>
+      </c>
+      <c r="D7" s="461" t="n">
+        <v>2180715.0</v>
+      </c>
+      <c r="E7" s="469" t="n">
+        <v>2985752.0</v>
+      </c>
+      <c r="F7" s="476" t="n">
+        <v>3691712.0</v>
       </c>
       <c r="G7" s="409"/>
       <c r="H7" s="409"/>
@@ -4818,20 +5046,20 @@
       <c r="K7" s="409"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="406">
-        <v>7</v>
-      </c>
-      <c r="B8" s="409">
-        <v>440832</v>
-      </c>
-      <c r="C8" s="409">
-        <v>1288463</v>
-      </c>
-      <c r="D8" s="409">
-        <v>2419861</v>
-      </c>
-      <c r="E8" s="409">
-        <v>3483130</v>
+      <c r="A8" s="433" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="443" t="n">
+        <v>440832.0</v>
+      </c>
+      <c r="C8" s="453" t="n">
+        <v>1288463.0</v>
+      </c>
+      <c r="D8" s="462" t="n">
+        <v>2419861.0</v>
+      </c>
+      <c r="E8" s="470" t="n">
+        <v>3483130.0</v>
       </c>
       <c r="F8" s="409"/>
       <c r="G8" s="409"/>
@@ -4841,17 +5069,17 @@
       <c r="K8" s="409"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="406">
-        <v>8</v>
-      </c>
-      <c r="B9" s="409">
-        <v>359480</v>
-      </c>
-      <c r="C9" s="409">
-        <v>1421128</v>
-      </c>
-      <c r="D9" s="409">
-        <v>2864498</v>
+      <c r="A9" s="434" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="444" t="n">
+        <v>359480.0</v>
+      </c>
+      <c r="C9" s="454" t="n">
+        <v>1421128.0</v>
+      </c>
+      <c r="D9" s="463" t="n">
+        <v>2864498.0</v>
       </c>
       <c r="E9" s="409"/>
       <c r="F9" s="409"/>
@@ -4862,14 +5090,14 @@
       <c r="K9" s="409"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="406">
-        <v>9</v>
-      </c>
-      <c r="B10" s="409">
-        <v>376686</v>
-      </c>
-      <c r="C10" s="409">
-        <v>1363294</v>
+      <c r="A10" s="435" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="445" t="n">
+        <v>376686.0</v>
+      </c>
+      <c r="C10" s="455" t="n">
+        <v>1363294.0</v>
       </c>
       <c r="D10" s="409"/>
       <c r="E10" s="409"/>
@@ -4881,11 +5109,11 @@
       <c r="K10" s="409"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="406">
-        <v>10</v>
-      </c>
-      <c r="B11" s="409">
-        <v>344014</v>
+      <c r="A11" s="436" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="446" t="n">
+        <v>344014.0</v>
       </c>
       <c r="C11" s="409"/>
       <c r="D11" s="409"/>
@@ -5122,17 +5350,17 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:K1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="B1:K1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J10"/>
@@ -5140,8 +5368,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" customWidth="1"/>
-    <col min="2" max="10" width="6.6328125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="5.6328125" collapsed="false"/>
+    <col min="2" max="10" customWidth="true" width="6.6328125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -5357,13 +5585,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
@@ -5371,7 +5599,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.36328125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -5646,7 +5874,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>